--- a/spliced/falling/2023-03-25_17-58-58/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-58/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0138971842825412</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0024434609804302</v>
+        <v>0.0187841057777404</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.022754730656743</v>
+        <v>0.0213802829384803</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0771217346191406</v>
+        <v>-0.0138971842825412</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0389426611363887</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0746782794594764</v>
+        <v>-0.022754730656743</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0310014113783836</v>
+        <v>-0.0771217346191406</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08857546001672741</v>
+        <v>0.0389426611363887</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0905607715249061</v>
+        <v>-0.0746782794594764</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1030835136771202</v>
+        <v>0.0310014113783836</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.2098322063684463</v>
+        <v>0.08857546001672741</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0536034256219863</v>
+        <v>-0.0905607715249061</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1169806942343711</v>
+        <v>-0.1030835136771202</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2922990322113037</v>
+        <v>-0.2098322063684463</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0441350154578685</v>
+        <v>-0.0536034256219863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.0219911485910415</v>
+        <v>-0.1169806942343711</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4163046777248382</v>
+        <v>0.2922990322113037</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2826778888702392</v>
+        <v>-0.0441350154578685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.3194825351238251</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.665232241153717</v>
+        <v>0.4163046777248382</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.632065534591675</v>
+        <v>-0.2826778888702392</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.5913175344467163</v>
+        <v>-0.3194825351238251</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.5700763463974</v>
+        <v>-0.665232241153717</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.044857740402222</v>
+        <v>-2.632065534591675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.056644201278686</v>
+        <v>0.5913175344467163</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.6782131195068359</v>
+        <v>-1.5700763463974</v>
       </c>
       <c r="C10" t="n">
-        <v>3.03432035446167</v>
+        <v>-3.044857740402222</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.593886613845825</v>
+        <v>1.056644201278686</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.678352236747742</v>
+        <v>-0.6782131195068359</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.245832443237305</v>
+        <v>3.03432035446167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1194241568446159</v>
+        <v>2.593886613845825</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0649044290184974</v>
+        <v>-1.678352236747742</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.2437352389097213</v>
+        <v>-3.245832443237305</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2799290120601654</v>
+        <v>-0.1194241568446159</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.1166752651333808</v>
+        <v>-0.0649044290184974</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2556470930576324</v>
+        <v>-0.2437352389097213</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2722931802272796</v>
+        <v>-0.2799290120601654</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.7874053120613098</v>
+        <v>-0.1166752651333808</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.4535674452781677</v>
+        <v>-0.2556470930576324</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.3746131062507629</v>
+        <v>-0.2722931802272796</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.3875939846038818</v>
+        <v>-0.7874053120613098</v>
       </c>
       <c r="C15" t="n">
-        <v>2.562732458114624</v>
+        <v>-0.4535674452781677</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.0140499006956815</v>
+        <v>-0.3746131062507629</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.09651670604944219</v>
+        <v>-0.3875939846038818</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1705841124057769</v>
+        <v>2.562732458114624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.08338310569524759</v>
+        <v>-0.0140499006956815</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4002694487571716</v>
+        <v>-0.09651670604944219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.007177666760981</v>
+        <v>0.1705841124057769</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0167987942695617</v>
+        <v>-0.08338310569524759</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.2802344262599945</v>
+        <v>0.4002694487571716</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0123700210824608</v>
+        <v>0.007177666760981</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0948368310928344</v>
+        <v>-0.0167987942695617</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0352774672210216</v>
+        <v>-0.2802344262599945</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.1113301888108253</v>
+        <v>-0.0123700210824608</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0395535230636596</v>
+        <v>-0.0948368310928344</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0447458773851394</v>
+        <v>0.0352774672210216</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0209221355617046</v>
+        <v>-0.1113301888108253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0830776765942573</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1788308024406433</v>
+        <v>-0.0447458773851394</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0158824957907199</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0752891451120376</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0606283769011497</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0500909499824047</v>
+        <v>-0.0209221355617046</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-58-58/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-58-58/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0032070425804704</v>
+        <v>0.0345138870179653</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0187841057777404</v>
+        <v>-0.0546724386513233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0213802829384803</v>
+        <v>0.1018617823719978</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0138971842825412</v>
+        <v>-0.0178678091615438</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0024434609804302</v>
+        <v>-0.0160352122038602</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.022754730656743</v>
+        <v>0.0375682115554809</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.0771217346191406</v>
+        <v>0.0255036242306232</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0389426611363887</v>
+        <v>-0.0097738439217209</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0746782794594764</v>
+        <v>-0.0500909499824047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0310014113783836</v>
+        <v>0.040775254368782</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08857546001672741</v>
+        <v>0.0166460778564214</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0905607715249061</v>
+        <v>0.0087048299610614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1030835136771202</v>
+        <v>0.01328631862998</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2098322063684463</v>
+        <v>0.058643065392971</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0536034256219863</v>
+        <v>0.0251981914043426</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1169806942343711</v>
+        <v>0.0279470849782228</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2922990322113037</v>
+        <v>0.0377209298312664</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0441350154578685</v>
+        <v>0.0471893399953842</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0219911485910415</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4163046777248382</v>
+        <v>0.0187841057777404</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.2826778888702392</v>
+        <v>0.0213802829384803</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.3194825351238251</v>
+        <v>-0.0138971842825412</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.665232241153717</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.632065534591675</v>
+        <v>-0.022754730656743</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5913175344467163</v>
+        <v>-0.0771217346191406</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.5700763463974</v>
+        <v>0.0389426611363887</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.044857740402222</v>
+        <v>-0.0746782794594764</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.056644201278686</v>
+        <v>0.0310014113783836</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.6782131195068359</v>
+        <v>0.08857546001672741</v>
       </c>
       <c r="C11" t="n">
-        <v>3.03432035446167</v>
+        <v>-0.0905607715249061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.593886613845825</v>
+        <v>-0.1030835136771202</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.678352236747742</v>
+        <v>-0.2098322063684463</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.245832443237305</v>
+        <v>-0.0536034256219863</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.1194241568446159</v>
+        <v>-0.1169806942343711</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.0649044290184974</v>
+        <v>0.2922990322113037</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.2437352389097213</v>
+        <v>-0.0441350154578685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.2799290120601654</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1166752651333808</v>
+        <v>0.4163046777248382</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.2556470930576324</v>
+        <v>-0.2826778888702392</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2722931802272796</v>
+        <v>-0.3194825351238251</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.7874053120613098</v>
+        <v>-0.665232241153717</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4535674452781677</v>
+        <v>-2.632065534591675</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3746131062507629</v>
+        <v>0.5913175344467163</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.3875939846038818</v>
+        <v>-1.5700763463974</v>
       </c>
       <c r="C16" t="n">
-        <v>2.562732458114624</v>
+        <v>-3.044857740402222</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.0140499006956815</v>
+        <v>1.056644201278686</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.09651670604944219</v>
+        <v>-0.6782131195068359</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1705841124057769</v>
+        <v>3.03432035446167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.08338310569524759</v>
+        <v>2.593886613845825</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4002694487571716</v>
+        <v>-1.678352236747742</v>
       </c>
       <c r="C18" t="n">
-        <v>0.007177666760981</v>
+        <v>-3.245832443237305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0167987942695617</v>
+        <v>-0.1194241568446159</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.2802344262599945</v>
+        <v>-0.0649044290184974</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0123700210824608</v>
+        <v>-0.2437352389097213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.0948368310928344</v>
+        <v>-0.2799290120601654</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0352774672210216</v>
+        <v>-0.1166752651333808</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.1113301888108253</v>
+        <v>-0.2556470930576324</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.2722931802272796</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.7874053120613098</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4535674452781677</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.3746131062507629</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.3875939846038818</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.562732458114624</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.0140499006956815</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.09651670604944219</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1705841124057769</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.08338310569524759</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4002694487571716</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.007177666760981</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.0167987942695617</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2802344262599945</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.0123700210824608</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0948368310928344</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0352774672210216</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1113301888108253</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
         <v>-0.0395535230636596</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B27" t="n">
         <v>-0.0447458773851394</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C27" t="n">
         <v>-0.0209221355617046</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.0830776765942573</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.1788308024406433</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0158824957907199</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.0752891451120376</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0606283769011497</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0500909499824047</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0174096599221229</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.0296269636601209</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.0302378293126821</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0155770638957619</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0525344125926494</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0565050356090068</v>
       </c>
     </row>
   </sheetData>
